--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.1102844782612</v>
+        <v>1790.34669129872</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.59143808817635</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.72978832722616</v>
+        <v>14.93190549991144</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.6086347173128</v>
+        <v>12.06495752168237</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>522.1199999999982</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.52</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.95858503259002</v>
+        <v>16.95858503258999</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.29375422704624</v>
+        <v>16.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.99312545677591</v>
+        <v>41.86770052517324</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>38.80648056830877</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.12542493160267</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.0235425542724</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,15 +1127,85 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>201.5399999999998</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>194.1249999999999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>195.9049999999999</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>196.0399999999998</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>203.55</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>157.885</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>157.09</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>154.61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9950000000003</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2049999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9950000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>201.5399999999998</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>194.1249999999999</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>195.9049999999999</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>196.0399999999998</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.55</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.204999999999659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1692,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.995000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>51.53999999999985</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>44.12499999999986</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>45.90499999999986</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>46.03999999999985</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>53.55</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2025,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2165,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2176,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2187,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2198,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2209,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2220,10 +2290,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2231,10 +2301,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2242,12 +2312,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
